--- a/public/formNilaiAgent.xlsx
+++ b/public/formNilaiAgent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITAS PERTAMINA\Paragon\Website Customer Care\admin-ccparagon-web\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17E348F-C869-4692-8BEC-C7173C72067F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5555C99C-E0EF-4F05-A25C-2C16D62CD66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Alghifari Rasyid Zola</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>qascore</t>
+  </si>
+  <si>
+    <t>afrt</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>csat</t>
   </si>
 </sst>
 </file>
@@ -379,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +408,7 @@
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -406,8 +421,23 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -420,8 +450,23 @@
       <c r="D2">
         <v>95</v>
       </c>
+      <c r="E2">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>87</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -434,8 +479,23 @@
       <c r="D3">
         <v>95</v>
       </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>57</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -448,8 +508,23 @@
       <c r="D4">
         <v>95</v>
       </c>
+      <c r="E4">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>99</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -462,8 +537,23 @@
       <c r="D5">
         <v>95</v>
       </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>98</v>
+      </c>
+      <c r="G5">
+        <v>87</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -476,8 +566,23 @@
       <c r="D6">
         <v>95</v>
       </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>68</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -489,6 +594,21 @@
       </c>
       <c r="D7">
         <v>95</v>
+      </c>
+      <c r="E7">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>91</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/public/formNilaiAgent.xlsx
+++ b/public/formNilaiAgent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITAS PERTAMINA\Paragon\Website Customer Care\admin-ccparagon-web\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5555C99C-E0EF-4F05-A25C-2C16D62CD66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D480569-4442-479D-BD9F-2C35D66292D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Alghifari Rasyid Zola</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>csat</t>
+  </si>
+  <si>
+    <t>remarks_qascore</t>
+  </si>
+  <si>
+    <t>remarks_quizscore</t>
+  </si>
+  <si>
+    <t>remarks_typingtestscore</t>
+  </si>
+  <si>
+    <t>remarks_afrt</t>
+  </si>
+  <si>
+    <t>remarks_art</t>
+  </si>
+  <si>
+    <t>remarks_rt</t>
+  </si>
+  <si>
+    <t>remarks_rr</t>
+  </si>
+  <si>
+    <t>remarks_csat</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum, tes, tes</t>
   </si>
 </sst>
 </file>
@@ -394,21 +421,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -416,198 +451,225 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>75</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>90</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>95</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>82</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>87</v>
       </c>
-      <c r="G2">
+      <c r="L2">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="N2">
         <v>60</v>
       </c>
-      <c r="I2">
+      <c r="P2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>88</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
         <v>85</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>95</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>83</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>43</v>
       </c>
-      <c r="G3">
+      <c r="L3">
         <v>39</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>57</v>
       </c>
-      <c r="I3">
+      <c r="P3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>83</v>
       </c>
-      <c r="C4">
-        <v>95</v>
-      </c>
       <c r="D4">
         <v>95</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>95</v>
+      </c>
+      <c r="H4">
         <v>67</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>99</v>
       </c>
-      <c r="G4">
+      <c r="L4">
         <v>46</v>
       </c>
-      <c r="H4">
+      <c r="N4">
         <v>35</v>
       </c>
-      <c r="I4">
+      <c r="P4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>90</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>75</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>95</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>29</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <v>98</v>
       </c>
-      <c r="G5">
+      <c r="L5">
         <v>87</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <v>20</v>
       </c>
-      <c r="I5">
+      <c r="P5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>79</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>86</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>95</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>90</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>45</v>
       </c>
-      <c r="G6">
+      <c r="L6">
         <v>79</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <v>68</v>
       </c>
-      <c r="I6">
+      <c r="P6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>81</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>91</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>95</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>33</v>
       </c>
-      <c r="F7">
+      <c r="J7">
         <v>32</v>
       </c>
-      <c r="G7">
+      <c r="L7">
         <v>91</v>
       </c>
-      <c r="H7">
+      <c r="N7">
         <v>50</v>
       </c>
-      <c r="I7">
+      <c r="P7">
         <v>100</v>
       </c>
     </row>
